--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
   <si>
     <t>Property</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5025,13 +5028,11 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5107,10 +5108,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5307,7 +5308,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5330,19 +5331,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5391,7 +5392,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5409,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5418,12 +5419,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5449,10 +5450,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5535,7 +5536,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5649,7 +5650,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5675,16 +5676,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5733,7 +5734,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5751,7 +5752,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5760,12 +5761,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5791,13 +5792,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5847,7 +5848,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5865,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5874,12 +5875,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5905,14 +5906,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5962,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5980,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5988,12 +5989,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6019,14 +6020,14 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6075,7 +6076,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6093,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6102,12 +6103,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6130,19 +6131,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6191,7 +6192,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6209,7 +6210,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6218,12 +6219,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6249,16 +6250,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6325,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6334,7 +6335,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
@@ -6342,7 +6343,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6364,7 +6365,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>218</v>
@@ -6455,7 +6456,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6478,16 +6479,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6537,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6552,24 +6553,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6592,16 +6593,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6651,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6666,10 +6667,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6683,7 +6684,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6706,16 +6707,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6765,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6783,10 +6784,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6797,7 +6798,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6820,13 +6821,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6877,7 +6878,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6892,10 +6893,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6909,7 +6910,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6935,10 +6936,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -7021,7 +7022,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7135,11 +7136,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7161,10 +7162,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7219,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7251,7 +7252,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7277,14 +7278,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7312,10 +7313,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7333,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7351,7 +7352,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7365,7 +7366,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7388,13 +7389,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7445,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7460,10 +7461,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7477,7 +7478,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7500,16 +7501,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7559,7 +7560,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7577,7 +7578,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7591,7 +7592,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7614,16 +7615,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7673,7 +7674,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7688,24 +7689,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7731,13 +7732,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7766,10 +7767,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7787,7 +7788,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7805,21 +7806,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7842,16 +7843,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7901,7 +7902,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7919,21 +7920,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7959,10 +7960,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8045,7 +8046,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8159,7 +8160,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8182,19 +8183,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8243,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8261,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8270,12 +8271,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8301,20 +8302,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8338,10 +8339,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8359,7 +8360,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8377,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8386,12 +8387,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8417,14 +8418,14 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8473,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8491,7 +8492,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8500,12 +8501,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8531,14 +8532,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8587,7 +8588,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8596,7 +8597,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8605,7 +8606,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8614,12 +8615,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8645,16 +8646,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8703,7 +8704,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8721,7 +8722,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8730,12 +8731,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8758,16 +8759,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8817,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8835,7 +8836,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8844,12 +8845,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8872,13 +8873,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8929,7 +8930,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8947,21 +8948,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8984,13 +8985,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9041,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9056,24 +9057,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9096,16 +9097,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9155,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9173,21 +9174,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9210,16 +9211,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9269,7 +9270,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9287,13 +9288,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9301,7 +9302,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9324,16 +9325,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9383,7 +9384,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9398,10 +9399,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9410,12 +9411,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9438,16 +9439,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9497,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9515,7 +9516,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9529,7 +9530,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9555,7 +9556,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9641,7 +9642,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9755,10 +9756,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9780,13 +9781,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9869,10 +9870,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9894,13 +9895,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9983,10 +9984,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10008,13 +10009,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10097,10 +10098,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10122,13 +10123,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10211,11 +10212,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10237,10 +10238,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10295,7 +10296,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10327,7 +10328,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10350,17 +10351,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10409,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10427,7 +10428,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10436,12 +10437,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10467,14 +10468,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10523,7 +10524,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10541,7 +10542,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10550,12 +10551,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10581,16 +10582,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10618,10 +10619,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10639,7 +10640,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10657,7 +10658,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10666,12 +10667,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10697,10 +10698,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10751,7 +10752,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10769,7 +10770,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10778,12 +10779,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10806,19 +10807,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10867,7 +10868,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10885,7 +10886,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10899,7 +10900,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10925,10 +10926,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11011,7 +11012,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11125,11 +11126,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11151,10 +11152,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11209,7 +11210,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11241,7 +11242,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11264,17 +11265,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11323,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11341,7 +11342,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11355,7 +11356,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11378,17 +11379,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11437,7 +11438,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11449,13 +11450,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11469,7 +11470,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11495,10 +11496,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11581,7 +11582,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11695,7 +11696,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11718,13 +11719,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11775,7 +11776,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11793,7 +11794,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11807,7 +11808,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11830,19 +11831,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11891,7 +11892,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11909,7 +11910,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11923,7 +11924,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11946,13 +11947,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12003,7 +12004,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12021,7 +12022,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12035,7 +12036,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12058,19 +12059,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12119,7 +12120,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12137,7 +12138,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12151,7 +12152,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12174,19 +12175,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12235,7 +12236,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12253,7 +12254,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12267,7 +12268,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12293,10 +12294,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12326,10 +12327,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12347,7 +12348,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12365,7 +12366,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12379,7 +12380,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12402,13 +12403,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12416,7 +12417,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12461,7 +12462,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12479,7 +12480,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12493,7 +12494,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12516,13 +12517,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12573,7 +12574,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12591,7 +12592,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12605,7 +12606,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12628,13 +12629,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12685,7 +12686,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12703,7 +12704,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12717,7 +12718,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12740,13 +12741,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12797,7 +12798,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12815,7 +12816,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12829,7 +12830,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12855,10 +12856,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12888,10 +12889,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12909,7 +12910,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12927,7 +12928,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12941,7 +12942,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12967,13 +12968,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13003,7 +13004,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13021,7 +13022,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13053,7 +13054,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13076,16 +13077,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13135,7 +13136,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13167,7 +13168,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13193,16 +13194,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13230,10 +13231,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13251,7 +13252,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13269,7 +13270,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13283,7 +13284,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13306,13 +13307,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13363,7 +13364,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13381,7 +13382,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13395,7 +13396,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13421,13 +13422,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13456,10 +13457,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13477,7 +13478,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13495,7 +13496,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13509,7 +13510,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13535,10 +13536,10 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13621,7 +13622,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13735,7 +13736,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13758,19 +13759,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13819,7 +13820,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13837,7 +13838,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13846,12 +13847,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13877,10 +13878,10 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13963,7 +13964,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14077,7 +14078,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14103,16 +14104,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14161,7 +14162,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14179,7 +14180,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14188,12 +14189,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14219,13 +14220,13 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14275,7 +14276,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14293,7 +14294,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14302,12 +14303,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14333,14 +14334,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14389,7 +14390,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14407,7 +14408,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14416,12 +14417,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14447,14 +14448,14 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14503,7 +14504,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14521,7 +14522,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14530,12 +14531,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14558,19 +14559,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14619,7 +14620,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14637,7 +14638,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14646,12 +14647,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14677,16 +14678,16 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14735,7 +14736,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14753,7 +14754,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14762,12 +14763,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14790,16 +14791,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14828,10 +14829,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14849,7 +14850,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14867,7 +14868,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14876,12 +14877,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14907,16 +14908,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14944,10 +14945,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14965,7 +14966,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14983,7 +14984,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14992,12 +14993,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15023,16 +15024,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15060,10 +15061,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15081,7 +15082,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15099,7 +15100,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15108,12 +15109,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15139,16 +15140,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15176,10 +15177,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15197,7 +15198,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15215,7 +15216,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15224,12 +15225,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15252,13 +15253,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15309,7 +15310,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15336,12 +15337,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15367,10 +15368,10 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15453,7 +15454,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15567,7 +15568,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15593,14 +15594,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15628,10 +15629,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15649,7 +15650,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15676,12 +15677,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15704,19 +15705,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15765,7 +15766,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15783,7 +15784,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15792,12 +15793,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15820,19 +15821,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15881,7 +15882,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15899,7 +15900,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15908,12 +15909,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15936,19 +15937,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15997,7 +15998,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16015,7 +16016,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16024,12 +16025,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16052,19 +16053,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16113,7 +16114,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16131,7 +16132,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16145,7 +16146,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16168,17 +16169,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16227,7 +16228,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16245,7 +16246,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16259,7 +16260,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16282,13 +16283,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16339,7 +16340,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16357,13 +16358,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16371,7 +16372,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16397,10 +16398,10 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16483,7 +16484,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16597,11 +16598,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16623,10 +16624,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16681,7 +16682,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16713,7 +16714,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16736,13 +16737,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16793,7 +16794,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16811,7 +16812,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16825,7 +16826,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16851,13 +16852,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16886,10 +16887,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16907,7 +16908,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16925,21 +16926,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16965,13 +16966,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17000,10 +17001,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17021,7 +17022,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17039,13 +17040,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17053,7 +17054,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17076,16 +17077,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17135,7 +17136,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17153,13 +17154,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17167,11 +17168,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17190,16 +17191,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17249,7 +17250,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17267,7 +17268,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17281,7 +17282,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17304,16 +17305,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17363,7 +17364,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17381,7 +17382,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
